--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91535A93-D728-4193-BE06-8E44F526A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF50E3-7B71-468B-9378-E34866A8BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>テストケースID</t>
     <phoneticPr fontId="2"/>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>検索機能</t>
-  </si>
-  <si>
-    <t>各検索条件に応じた正しい検索結果の表示</t>
   </si>
   <si>
     <t>検索条件が未入力の場合、全件表示が行われること</t>
@@ -332,6 +329,120 @@
 2.アカウント登録にアクセスする</t>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.データベース接続を遮断し、検索ボタンをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント一覧画面で部分一致の検索条件を入力し、「検索」ボタンをクリックする。
+2. 該当するアカウントが表示されることを確認する。</t>
+  </si>
+  <si>
+    <t>部分一致検索で該当するアカウントが正しく表示されること。</t>
+  </si>
+  <si>
+    <t>1. アカウント一覧画面で複数の検索条件を入力し、「検索」ボタンをクリックする。
+2. AND条件で絞り込まれた結果が表示されることを確認する。</t>
+  </si>
+  <si>
+    <t>AND条件の検索で該当するアカウントが正しく表示されること。</t>
+  </si>
+  <si>
+    <t>部分一致検索機能を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数条件での検索を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下時に入力チェック
+未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「名前（姓）」「名前（名）」はひらがな、漢字のみ入力可
+「カナ（姓）」「カナ（名）」はカタカナのみ入力可
+「パスワード」は半角英数字のみ入力可
+「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能
+「郵便番号」は半角数字のみ入力可
+「住所（市区町村）」「住所（番地）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,12 +518,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,6 +528,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -712,54 +829,58 @@
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.09765625" customWidth="1"/>
+    <col min="5" max="5" width="62.69921875" customWidth="1"/>
+    <col min="6" max="6" width="63.3984375" customWidth="1"/>
+    <col min="7" max="7" width="55.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54">
+    <row r="2" spans="1:12" ht="54">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -768,21 +889,24 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="54">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="36">
       <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -791,21 +915,22 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="54">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="144">
       <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -814,21 +939,24 @@
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="54">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="36">
       <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -837,21 +965,22 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="54">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="36">
       <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -860,21 +989,22 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="54">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="36">
       <c r="A7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -883,21 +1013,22 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="54">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="36">
       <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -906,21 +1037,22 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="54">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="36">
       <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -929,19 +1061,20 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="54">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -953,16 +1086,19 @@
         <v>27</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="54">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -974,16 +1110,19 @@
         <v>28</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="54">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -995,16 +1134,19 @@
         <v>30</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="54">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -1016,16 +1158,19 @@
         <v>32</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="54">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -1037,411 +1182,495 @@
         <v>35</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="54">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="54">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="36">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="36">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="36">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="36">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="36">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="36">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="36">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="36">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="36">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="36">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="36">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="36">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="36">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="36">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="36">
       <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="36">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF50E3-7B71-468B-9378-E34866A8BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7503A-E8AC-442C-83D5-B6AD849691E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
   <si>
     <t>テストケースID</t>
     <phoneticPr fontId="2"/>
@@ -78,9 +78,6 @@
     <t>各入力項目の最大文字数の検証</t>
   </si>
   <si>
-    <t>パスワードがハッシュ化されて保存されることの確認</t>
-  </si>
-  <si>
     <t>登録確認画面</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>DBに正しくアカウント情報が登録されていること</t>
   </si>
   <si>
-    <t>登録完了画面への遷移確認</t>
-  </si>
-  <si>
     <t>エラーハンドリング</t>
   </si>
   <si>
@@ -106,13 +100,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>許可された文字種の検証</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -120,77 +107,63 @@
     <t>一覧表示の検証</t>
   </si>
   <si>
+    <t>IDの降順で並び替えられていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク機能</t>
+  </si>
+  <si>
+    <t>アカウント更新・削除画面へのリンクが正しく機能していること</t>
+  </si>
+  <si>
+    <t>表示/非表示の検証</t>
+  </si>
+  <si>
+    <t>権限に応じた表示項目の出し分けが正しく行われていること</t>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+  </si>
+  <si>
+    <t>検索機能</t>
+  </si>
+  <si>
+    <t>検索条件が未入力の場合、全件表示が行われること</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面の初期表示が非表示になっていること</t>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+  </si>
+  <si>
+    <t>更新確認画面</t>
+  </si>
+  <si>
+    <t>更新完了処理</t>
+  </si>
+  <si>
+    <t>DBに正しく更新内容が反映されていること</t>
+  </si>
+  <si>
+    <t>更新完了画面への遷移確認</t>
+  </si>
+  <si>
+    <t>入力値が不正の場合のエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+  </si>
+  <si>
     <t>正しいアカウント情報が表示されていること</t>
-  </si>
-  <si>
-    <t>IDの降順で並び替えられていること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リンク機能</t>
-  </si>
-  <si>
-    <t>アカウント更新・削除画面へのリンクが正しく機能していること</t>
-  </si>
-  <si>
-    <t>表示/非表示の検証</t>
-  </si>
-  <si>
-    <t>権限に応じた表示項目の出し分けが正しく行われていること</t>
-  </si>
-  <si>
-    <t>アカウント検索</t>
-  </si>
-  <si>
-    <t>アカウント一覧</t>
-  </si>
-  <si>
-    <t>アカウント情報の取得エラー時のエラーメッセージ表示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検索機能</t>
-  </si>
-  <si>
-    <t>検索条件が未入力の場合、全件表示が行われること</t>
-  </si>
-  <si>
-    <t>初期表示</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面の初期表示が非表示になっていること</t>
-  </si>
-  <si>
-    <t>アカウント検索</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント更新</t>
-  </si>
-  <si>
-    <t>更新確認画面</t>
-  </si>
-  <si>
-    <t>更新完了処理</t>
-  </si>
-  <si>
-    <t>DBに正しく更新内容が反映されていること</t>
-  </si>
-  <si>
-    <t>更新完了画面への遷移確認</t>
-  </si>
-  <si>
-    <t>入力値が不正の場合のエラーメッセージ表示</t>
-  </si>
-  <si>
-    <t>アカウント削除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除確認画面</t>
-  </si>
-  <si>
-    <t>正しいアカウント情報が表示されていること</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -263,9 +236,6 @@
   </si>
   <si>
     <t>TC012</t>
-  </si>
-  <si>
-    <t>TC013</t>
   </si>
   <si>
     <t>TC014</t>
@@ -347,102 +317,586 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
+    <t>1. アカウント一覧画面で部分一致の検索条件を入力し、「検索」ボタンをクリックする。
+2. 該当するアカウントが表示されることを確認する。</t>
+  </si>
+  <si>
+    <t>部分一致検索で該当するアカウントが正しく表示されること。</t>
+  </si>
+  <si>
+    <t>1. アカウント一覧画面で複数の検索条件を入力し、「検索」ボタンをクリックする。
+2. AND条件で絞り込まれた結果が表示されることを確認する。</t>
+  </si>
+  <si>
+    <t>AND条件の検索で該当するアカウントが正しく表示されること。</t>
+  </si>
+  <si>
+    <t>部分一致検索機能を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数条件での検索を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←最大入力文字数は10文字、初期値は空欄
+名前（名）　　　←最大入力文字数は10文字、初期値は空欄
+カナ（姓）　　　←最大入力文字数は10文字、初期値は空欄
+カナ（名）　　　←最大入力文字数は10文字、初期値は空欄
+メールアドレス　←最大入力文字数は100文字、初期値は空欄
+パスワード　　　←最大入力文字数は10文字、初期値は空欄
+郵便番号　　　　←最大入力文字数は７文字、初期値は空欄
+住所（市区町村）←最大入力文字数は10文字、初期値は空欄
+住所（番地）　　←最大入力文字数は100文字、初期値は空欄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←ひらがな、漢字のみ入力可
+名前（名）　　　←ひらがな、漢字のみ入力可
+カナ（姓）　　　←カタカナのみ入力可
+カナ（名）　　　←カタカナのみ入力可
+メールアドレス　←半角英数字、半角ハイフン、
+                                半角記号   （ハイフンとアットマーク）のみ入力可能
+パスワード　　　←半角英数字のみ入力可
+郵便番号　　　　←半角数字のみ入力可
+住所（市区町村）←ひらがな、漢字、数字、カタカナ、
+                                記号（ハイフンとスペース）のみ入力可
+住所（番地）　　←ひらがな、漢字、数字、カタカナ、
+                                記号（ハイフンとスペース）のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下時に入力チェック
+エラーが0件ならば、アカウント登録確認画面に遷移
+未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力制限があるため最大文字数より多く入力できない</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクセイゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">確認するボタン押下時に入力チェック、エラーが0件ならば、アカウント登録確認画面に遷移
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力、未選択の場合もエラーが表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードがハッシュ化されて保存されることの確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードがハッシュ化されて保存されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.各項目入力文字数の確認を行う</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="68" eb="73">
+      <t>ニュウリョクモジスウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.各項目許可された文字種で入力チェックを行う</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.確認するボタン押下後、アカウント登録確認画面に画面遷移</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードは●で表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.確認するボタン押下後、アカウント登録確認画面に画面遷移
+4.登録するボタン押下時に登録処理をしてアカウント登録完了画面に遷移</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力項目の検証</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.必須項目をすべて入力し確認ボタン押下後、アカウント登録確認画面遷移
+4.mysqlデータベースでパスワードがハッシュ化されていることを確認</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="94" eb="98">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.確認するボタン押下後、アカウント登録確認画面に画面遷移
+4.登録するボタン押下時に登録処理をしてアカウント登録完了画面に遷移
+5.mysqlデータベースに入力情報が登録されることを確認</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面への遷移確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アカウント登録画面の入力値（アカウント登録確認画面で表示した入力値）をDBに新規登録する。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値が正しく表示されていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に入力値が正しく表示されていることを確認</t>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録処理後、アカウント登録完了画面に遷移</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録
+アカウント登録確認画面
+アカウント登録完了画面
+phpMyAdmin</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="36" eb="42">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録
+アカウント登録確認画面
+アカウント登録完了画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="36" eb="42">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録
+アカウント登録確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録
+アカウント登録確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しいアカウント情報が表示されていることを確認</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IDの降順で並び替えられていることを確認</t>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
 2.アカウント一覧にアクセスする
 3.すべての項目を選択せず検索を押し、全データ表示する</t>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="32" eb="34">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="53" eb="55">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="69" eb="71">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="62" eb="64">
+    <rPh sb="72" eb="74">
       <t>センタク</t>
     </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="76" eb="78">
       <t>ケンサク</t>
     </rPh>
-    <rPh sb="69" eb="70">
+    <rPh sb="79" eb="80">
       <t>オ</t>
     </rPh>
-    <rPh sb="72" eb="73">
+    <rPh sb="82" eb="83">
       <t>ゼン</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="86" eb="88">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
+    <t>更新ボタン→更新画面遷移
+削除ボタン→削除画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一般」権限の場合
+・ナビゲーションバーの「アカウント登録」「アカウント一覧」リンクを非表示にする
+「管理者」権限の場合
+・ ナビゲーションバーの「アカウント登録」「アカウント一覧」を表示する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
 2.アカウント一覧にアクセスする
-3.データベース接続を遮断し、検索ボタンをクリックする</t>
+3.すべての項目を選択せず検索を押し、全データ表示する
+4.更新ボタンをクリックする
+4.削除ボタンをクリックする</t>
     <rPh sb="6" eb="7">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="32" eb="34">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="53" eb="55">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツゾク</t>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.管理者アカウントでログイン
+1.一般アカウントでログイン
+2.（管理者）TOPページに「アカウント登録」「アカウント一覧」が表示されていることを確認
+2.（一般）TOPページに「アカウント登録」「アカウント一覧」が非表示になっていることを確認</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッパン</t>
     </rPh>
     <rPh sb="64" eb="66">
-      <t>シャダン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント一覧画面で部分一致の検索条件を入力し、「検索」ボタンをクリックする。
-2. 該当するアカウントが表示されることを確認する。</t>
-  </si>
-  <si>
-    <t>部分一致検索で該当するアカウントが正しく表示されること。</t>
-  </si>
-  <si>
-    <t>1. アカウント一覧画面で複数の検索条件を入力し、「検索」ボタンをクリックする。
-2. AND条件で絞り込まれた結果が表示されることを確認する。</t>
-  </si>
-  <si>
-    <t>AND条件の検索で該当するアカウントが正しく表示されること。</t>
-  </si>
-  <si>
-    <t>部分一致検索機能を確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>複数条件での検索を確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認するボタン押下時に入力チェック
-未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「名前（姓）」「名前（名）」はひらがな、漢字のみ入力可
-「カナ（姓）」「カナ（名）」はカタカナのみ入力可
-「パスワード」は半角英数字のみ入力可
-「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能
-「郵便番号」は半角数字のみ入力可
-「住所（市区町村）」「住所（番地）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>補足</t>
-    <rPh sb="0" eb="2">
-      <t>ホソク</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -518,12 +972,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -537,6 +988,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,83 +1275,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.09765625" customWidth="1"/>
+    <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.69921875" customWidth="1"/>
     <col min="6" max="6" width="63.3984375" customWidth="1"/>
-    <col min="7" max="7" width="55.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="54">
+    <row r="2" spans="1:12" ht="162">
       <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -902,266 +1361,294 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="36">
+    <row r="3" spans="1:12" ht="216">
       <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="144">
+    <row r="4" spans="1:12" ht="72">
       <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="36">
+    <row r="5" spans="1:12" ht="108">
       <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="36">
+    <row r="6" spans="1:12" ht="108">
       <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="36">
+    <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="36">
+    <row r="8" spans="1:12" ht="108">
       <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="36">
+    <row r="9" spans="1:12" ht="108">
       <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="54">
+    <row r="10" spans="1:12" ht="72">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="54">
+    <row r="11" spans="1:12" ht="72">
       <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="54">
+    <row r="12" spans="1:12" ht="108">
       <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="54">
+    <row r="13" spans="1:12" ht="108">
       <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1170,22 +1657,23 @@
     </row>
     <row r="14" spans="1:12" ht="54">
       <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1193,23 +1681,21 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="54">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
+      <c r="A15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1217,23 +1703,24 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="54">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:12" ht="36">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1242,20 +1729,20 @@
     </row>
     <row r="17" spans="1:12" ht="36">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="3" t="s">
-        <v>94</v>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1266,20 +1753,20 @@
     </row>
     <row r="18" spans="1:12" ht="36">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="3" t="s">
-        <v>94</v>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1290,20 +1777,20 @@
     </row>
     <row r="19" spans="1:12" ht="36">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="3" t="s">
-        <v>94</v>
+      <c r="F19" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1314,20 +1801,20 @@
     </row>
     <row r="20" spans="1:12" ht="36">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="3" t="s">
-        <v>94</v>
+      <c r="F20" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1338,20 +1825,20 @@
     </row>
     <row r="21" spans="1:12" ht="36">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
-        <v>94</v>
+      <c r="F21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1362,20 +1849,20 @@
     </row>
     <row r="22" spans="1:12" ht="36">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
-        <v>94</v>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1386,20 +1873,20 @@
     </row>
     <row r="23" spans="1:12" ht="36">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="3" t="s">
-        <v>94</v>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1410,20 +1897,20 @@
     </row>
     <row r="24" spans="1:12" ht="36">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="3" t="s">
-        <v>94</v>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1434,20 +1921,20 @@
     </row>
     <row r="25" spans="1:12" ht="36">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
-        <v>94</v>
+      <c r="F25" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1458,20 +1945,20 @@
     </row>
     <row r="26" spans="1:12" ht="36">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="3" t="s">
-        <v>94</v>
+      <c r="F26" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1482,20 +1969,20 @@
     </row>
     <row r="27" spans="1:12" ht="36">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="3" t="s">
-        <v>94</v>
+      <c r="F27" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1506,20 +1993,20 @@
     </row>
     <row r="28" spans="1:12" ht="36">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1530,20 +2017,20 @@
     </row>
     <row r="29" spans="1:12" ht="36">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="3" t="s">
-        <v>94</v>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1554,20 +2041,20 @@
     </row>
     <row r="30" spans="1:12" ht="36">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="3" t="s">
-        <v>93</v>
+      <c r="F30" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1578,20 +2065,20 @@
     </row>
     <row r="31" spans="1:12" ht="36">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="3" t="s">
-        <v>93</v>
+      <c r="F31" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1602,20 +2089,20 @@
     </row>
     <row r="32" spans="1:12" ht="36">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="3" t="s">
-        <v>93</v>
+      <c r="F32" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1626,20 +2113,20 @@
     </row>
     <row r="33" spans="1:12" ht="36">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="3" t="s">
-        <v>93</v>
+      <c r="F33" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1648,30 +2135,6 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="36">
-      <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA7503A-E8AC-442C-83D5-B6AD849691E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF87F787-CB4F-4AA1-AD69-247F0D9E3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
   <si>
     <t>テストケースID</t>
     <phoneticPr fontId="2"/>
@@ -81,9 +81,6 @@
     <t>登録確認画面</t>
   </si>
   <si>
-    <t>入力値が正しく表示されていること</t>
-  </si>
-  <si>
     <t>登録完了処理</t>
   </si>
   <si>
@@ -123,24 +120,12 @@
     <t>権限に応じた表示項目の出し分けが正しく行われていること</t>
   </si>
   <si>
-    <t>アカウント検索</t>
-  </si>
-  <si>
     <t>検索機能</t>
   </si>
   <si>
-    <t>検索条件が未入力の場合、全件表示が行われること</t>
-  </si>
-  <si>
     <t>初期表示</t>
   </si>
   <si>
-    <t>アカウント一覧画面の初期表示が非表示になっていること</t>
-  </si>
-  <si>
-    <t>アカウント更新</t>
-  </si>
-  <si>
     <t>更新確認画面</t>
   </si>
   <si>
@@ -170,22 +155,13 @@
     <t>削除処理</t>
   </si>
   <si>
-    <t>アカウントが削除フラグを1に更新され、一覧に表示されなくなること</t>
-  </si>
-  <si>
     <t>削除完了画面</t>
   </si>
   <si>
-    <t>削除完了画面への遷移確認</t>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールアドレスとパスワードの入力チェック</t>
-  </si>
-  <si>
     <t>認証処理</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>権限の検証</t>
   </si>
   <si>
-    <t>権限に応じた画面表示の制御</t>
-  </si>
-  <si>
     <t>TC001</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -293,28 +266,6 @@
   </si>
   <si>
     <t>TC032</t>
-  </si>
-  <si>
-    <t>1.ログイン後、TOPページから「アカウント登録」ボタンをクリックする
-2.アカウント登録にアクセスする</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.ログイン後、TOPページから「アカウント一覧」ボタンをクリックする
-2.アカウント一覧にアクセスする</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント一覧画面で部分一致の検索条件を入力し、「検索」ボタンをクリックする。
@@ -343,18 +294,6 @@
     <rPh sb="0" eb="2">
       <t>ホソク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前（姓）　　　←最大入力文字数は10文字、初期値は空欄
-名前（名）　　　←最大入力文字数は10文字、初期値は空欄
-カナ（姓）　　　←最大入力文字数は10文字、初期値は空欄
-カナ（名）　　　←最大入力文字数は10文字、初期値は空欄
-メールアドレス　←最大入力文字数は100文字、初期値は空欄
-パスワード　　　←最大入力文字数は10文字、初期値は空欄
-郵便番号　　　　←最大入力文字数は７文字、初期値は空欄
-住所（市区町村）←最大入力文字数は10文字、初期値は空欄
-住所（番地）　　←最大入力文字数は100文字、初期値は空欄</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -900,12 +839,1241 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>検索条件が未入力の場合、全件表示が行われること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件が未入力の場合、全件表示されることを確認</t>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の初期表示がアカウントデータ非表示になっていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面の初期表示がアカウントデータ非表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+更新</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録と同様</t>
+    <rPh sb="8" eb="10">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+更新
+更新確認</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←最大入力文字数は10文字、初期値は空欄
+名前（名）　　　←最大入力文字数は10文字、初期値は空欄
+カナ（姓）　　　←最大入力文字数は10文字、初期値は空欄
+カナ（名）　　　←最大入力文字数は10文字、初期値は空欄
+メールアドレス　←最大入力文字数は100文字、初期値は空欄
+パスワード　　　←最大入力文字数は10文字、初期値は空欄
+性別　　　　　　←男、女の２種類、初期値は「男」
+郵便番号　　　　←最大入力文字数は７文字、初期値は空欄
+住所（市区町村）←最大入力文字数は10文字、初期値は空欄
+住所（番地）　　←最大入力文字数は100文字、初期値は空欄
+住所（都道府県）←空欄、北海道～沖縄の４７都道府県の並び順、初期値は空欄を選択済
+アカウント権限　←一般、管理者の２種類、初期値は「一般」を選択済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←初期値は該当アカウント情報を表示
+名前（名）　　　←初期値は該当アカウント情報を表示
+カナ（姓）　　　←初期値は該当アカウント情報を表示
+カナ（名）　　　←初期値は該当アカウント情報を表示
+メールアドレス　←初期値は該当アカウント情報を表示
+パスワード　　　←初期値は空欄、placeholder="変更する場合は入力してください"
+郵便番号　　　　←初期値は該当アカウント情報を表示
+住所（市区町村）←初期値は該当アカウント情報を表示
+住所（番地）　　←初期値は該当アカウント情報を表示
+性別　　　　　　←初期値は該当アカウント情報を表示
+郵便番号　　　　←初期値は該当アカウント情報を表示
+住所（都道府県）←初期値は該当アカウント情報を表示
+アカウント権限　←初期値は該当アカウント情報を表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下時に入力チェック、
+エラーが0件ならば、更新確認画面に遷移</t>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力制限があるため最大文字数より多く入力できない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの更新ボタンをクリック</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+名前（名）　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+カナ（姓）　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+カナ（名）　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+メールアドレス　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+パスワード　　　←空欄の場合、テキスト表示（変更なし）
+                                変更する場合、入力値をテキスト表示（●で表示）
+郵便番号　　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+住所（市区町村）←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+住所（番地）　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+性別　　　　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+郵便番号　　　　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+住所（都道府県）←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示
+アカウント権限　←画面項目の右隣に、アカウント更新画面の入力値をテキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの更新ボタンをクリックする
+5.更新画面で確認するをクリックする
+6.更新確認画面に遷移後、入力値を確認する</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="135" eb="141">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新確認画面で入力値が正しく表示されていることを確認</t>
+    <rPh sb="0" eb="6">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+更新
+更新確認
+更新完了</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+更新
+更新確認
+更新完了
+phpMyAdmin</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに正しく更新内容が反映されていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの更新ボタンをクリックする
+5.更新画面で確認するをクリックする
+6.更新確認画面に遷移後、更新するをクリックする
+7.mysqlデータベースで正しく更新内容が反映されていること</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="135" eb="141">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新完了画面で、更新完了しました　←画面中央に大きくテキスト表示
+DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの更新ボタンをクリックする
+5.更新画面で確認するをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタン押下時に入力チェック
+エラーが0件ならば、更新確認画面に遷移
+未入力または未選択の項目が1件でもあれば、該当項目の下にエラーメッセージを赤字で表示する。</t>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、更新完了画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="18" eb="22">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+削除
+削除確認</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）　　　←初期値は該当アカウント情報を表示
+名前（名）　　　←初期値は該当アカウント情報を表示
+カナ（姓）　　　←初期値は該当アカウント情報を表示
+カナ（名）　　　←初期値は該当アカウント情報を表示
+メールアドレス　←初期値は該当アカウント情報を表示
+パスワード　　　←ハッシュ化されているので表示できません
+郵便番号　　　　←初期値は該当アカウント情報を表示
+住所（市区町村）←初期値は該当アカウント情報を表示
+住所（番地）　　←初期値は該当アカウント情報を表示
+性別　　　　　　←初期値は該当アカウント情報を表示
+郵便番号　　　　←初期値は該当アカウント情報を表示
+住所（都道府県）←初期値は該当アカウント情報を表示
+アカウント権限　←初期値は該当アカウント情報を表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面で正しいアカウント情報が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象アカウントの削除フラグが1に更新され、一覧に無効と表示</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント一覧
+削除
+削除確認
+削除完了
+phpMyAdmin</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの削除ボタンをクリックする
+5.削除画面で確認するをクリックする
+6.削除確認画面で削除するをクリックする
+7.削除完了画面遷移後アカウント一覧、データベースを確認する</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="135" eb="141">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="158" eb="162">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="162" eb="165">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面への遷移確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4.任意のアカウントの削除ボタンをクリックする
+5.削除画面で確認するをクリックする
+6.削除確認画面で削除するをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="136" eb="142">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4.任意のアカウントの更新ボタンをクリックする
+5.更新画面で確認するをクリックする
+6.データベース接続を切断しておく
+6.更新確認画面に遷移後、更新するをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="154" eb="160">
+      <t>コウシンカクニンガメン</t>
+    </rPh>
+    <rPh sb="161" eb="164">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4.任意のアカウントの削除ボタンをクリックする
+5.削除画面を確認する</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4.任意のアカウントの更新ボタンをクリック
+5.各項目入力文字数の確認を行う
+</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの更新ボタンをクリックする
+5.削除画面で確認するをクリックする
+6.データベース接続を切断しておく
+6.削除確認画面に遷移後、削除するをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、削除完了画面に「エラーが発生したためアカウント削除できません。」とエラーメッセージを赤字で表示する。</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス　　←UIはテキストボックス、最大入力文字数は100文字、初期値は空欄
+パスワード　　　　←UIはテキストボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の定義</t>
+  </si>
+  <si>
+    <t>項目の検証</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面項目の確認、入力文字数検証</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="31">
+      <t>ニュウリョクモジスウケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレはテキストボックス、最大入力文字数は100文字、初期値は空欄、パスワードはテキストボックス、最大入力文字数は10文字、初期値は空欄であることを確認</t>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>「一般」権限の場合
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ナビゲーションバーの「アカウント登録」「アカウント一覧」リンクを非表示にする
+　「管理者」権限の場合
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ナビゲーションバーの「アカウント登録」「アカウント一覧」を表示する</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP画面に遷移、権限によって
+「アカウント登録」「アカウント一覧」リンクの表示の有無ができていることを確認</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.データベースに登録済みのアカウントでログインボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限に応じた画面表示の制御「一般」権限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限に応じた画面表示の制御「管理者」権限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.入力文字検証
+3.ログインボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>「一般」権限の場合
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ナビゲーションバーの「アカウント登録」「アカウント一覧」リンクを非表示にする
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 「アカウント登録」「アカウント一覧」「アカウント削除」「アカウント更新」ページで操作不可（エラー表示）とする</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　「管理者」権限の場合
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ナビゲーションバーの「アカウント登録」「アカウント一覧」を表示する
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>┗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 「アカウント登録」「アカウント一覧」「アカウント削除」「アカウント更新」ページで操作可能とする</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後、TOPページから「アカウント登録」にアクセス
+2.ログイン後、TOPページから「アカウント一覧」にアクセス
+3.ログイン後、「アカウント削除」にアクセス
+4.ログイン後、「アカウント更新」にアクセス</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.正しく表示されていることを確認
+2.正しく表示されていることを確認
+3.正しく表示されていることを確認
+4.正しく表示されていることを確認</t>
+    <rPh sb="2" eb="3">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ページで操作不可（エラー表示）とする
+2.ページで操作不可（エラー表示）とする
+3.ページで操作不可（エラー表示）とする
+4.ページで操作不可（エラー表示）とする</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.データベース接続を切断する
+3.データベースに登録済みのアカウントでログインボタンをクリック</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBからアカウント情報の取得時にエラーが発生する場合は、画面に「エラーが発生したためログイン情報を取得できません。」とエラーメッセージを赤字で表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +2103,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1275,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1287,9 +2461,9 @@
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.69921875" customWidth="1"/>
+    <col min="5" max="5" width="77.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.3984375" customWidth="1"/>
-    <col min="7" max="7" width="61.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
@@ -1309,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -1333,27 +2507,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="162">
+    <row r="2" spans="1:12" ht="216">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1363,25 +2537,25 @@
     </row>
     <row r="3" spans="1:12" ht="216">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1391,10 +2565,10 @@
     </row>
     <row r="4" spans="1:12" ht="72">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1403,13 +2577,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1419,23 +2593,23 @@
     </row>
     <row r="5" spans="1:12" ht="108">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1445,25 +2619,25 @@
     </row>
     <row r="6" spans="1:12" ht="108">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1473,23 +2647,23 @@
     </row>
     <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1499,23 +2673,23 @@
     </row>
     <row r="8" spans="1:12" ht="108">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1525,23 +2699,23 @@
     </row>
     <row r="9" spans="1:12" ht="108">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1551,23 +2725,23 @@
     </row>
     <row r="10" spans="1:12" ht="72">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1577,23 +2751,23 @@
     </row>
     <row r="11" spans="1:12" ht="72">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1603,23 +2777,23 @@
     </row>
     <row r="12" spans="1:12" ht="108">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1629,25 +2803,25 @@
     </row>
     <row r="13" spans="1:12" ht="108">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1657,22 +2831,22 @@
     </row>
     <row r="14" spans="1:12" ht="54">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1681,21 +2855,23 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="54">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1703,60 +2879,64 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="36">
+    <row r="16" spans="1:12" ht="72">
       <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="36">
+    <row r="17" spans="1:12" ht="54">
       <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="36">
+    <row r="18" spans="1:12" ht="234">
       <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1764,23 +2944,27 @@
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="36">
+    <row r="19" spans="1:12" ht="126">
       <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1788,227 +2972,255 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="252">
       <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="36">
+    <row r="21" spans="1:12" ht="144">
       <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="144">
       <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="36">
+    <row r="23" spans="1:12" ht="108">
       <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="36">
+    <row r="24" spans="1:12" ht="144">
       <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="36">
+    <row r="25" spans="1:12" ht="234">
       <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="36">
+    <row r="26" spans="1:12" ht="144">
       <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="126">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="36">
+    <row r="28" spans="1:12" ht="144">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2017,123 +3229,167 @@
     </row>
     <row r="29" spans="1:12" ht="36">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="36">
+    <row r="30" spans="1:12" ht="72">
       <c r="A30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="36">
+    <row r="31" spans="1:12" ht="54">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="36">
+    <row r="32" spans="1:12" ht="72">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="36">
+    <row r="33" spans="1:12" ht="72">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="54">
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF87F787-CB4F-4AA1-AD69-247F0D9E3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26EFD8-4645-454E-A037-4B22A62C61A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
   <si>
     <t>テストケースID</t>
     <phoneticPr fontId="2"/>
@@ -2067,6 +2067,123 @@
   </si>
   <si>
     <t>TC033</t>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン
+TOP画面
+アカウント登録
+アカウント登録確認画面
+アカウント登録</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報の保持</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント登録」ボタンをクリックする
+2.アカウント登録にアクセスする
+3.確認するボタン押下後、アカウント登録確認画面に画面遷移
+4.前に戻るボタン押下後、アカウント登録に遷移</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタン押下時に入力情報の保持</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録にアクセスできない
+アクセス拒否になってしまっている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC034</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2168,6 +2285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2449,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2466,7 +2586,9 @@
     <col min="7" max="7" width="74.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2529,11 +2651,19 @@
       <c r="G2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="216">
       <c r="A3" s="1" t="s">
@@ -2557,11 +2687,19 @@
       <c r="G3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="72">
       <c r="A4" s="1" t="s">
@@ -2585,11 +2723,19 @@
       <c r="G4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="108">
       <c r="A5" s="1" t="s">
@@ -2611,11 +2757,19 @@
       <c r="G5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="108">
       <c r="A6" s="1" t="s">
@@ -2639,11 +2793,19 @@
       <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1" t="s">
@@ -2665,11 +2827,19 @@
       <c r="G7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="108">
       <c r="A8" s="1" t="s">
@@ -2691,11 +2861,19 @@
       <c r="G8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="108">
       <c r="A9" s="1" t="s">
@@ -2717,37 +2895,55 @@
       <c r="G9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="72">
+    <row r="10" spans="1:12" ht="90">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="72">
       <c r="A11" s="1" t="s">
@@ -2760,22 +2956,30 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="108">
+    <row r="12" spans="1:12" ht="72">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2783,76 +2987,101 @@
         <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="108">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="54">
+    <row r="14" spans="1:12" ht="108">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="54">
       <c r="A15" s="1" t="s">
@@ -2865,21 +3094,29 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="72">
+    <row r="16" spans="1:12" ht="54">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2889,23 +3126,30 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="54">
+    <row r="17" spans="1:12" ht="72">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,295 +3157,375 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" ht="234">
+    <row r="18" spans="1:12" ht="54">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" ht="126">
+    <row r="19" spans="1:12" ht="234">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" ht="252">
+    <row r="20" spans="1:12" ht="126">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" ht="144">
+    <row r="21" spans="1:12" ht="252">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="144">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" ht="108">
+    <row r="23" spans="1:12" ht="144">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" ht="144">
+    <row r="24" spans="1:12" ht="108">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="234">
+    <row r="25" spans="1:12" ht="144">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="144">
+    <row r="26" spans="1:12" ht="234">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="126">
+    <row r="27" spans="1:12" ht="144">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
+      <c r="B27" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="144">
+    <row r="28" spans="1:12" ht="126">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3209,107 +3533,123 @@
         <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="36">
+    <row r="29" spans="1:12" ht="144">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="72">
+    <row r="30" spans="1:12" ht="36">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>117</v>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" ht="54">
+    <row r="31" spans="1:12" ht="72">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" ht="72">
+    <row r="32" spans="1:12" ht="54">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -3317,25 +3657,27 @@
         <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>166</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="72">
       <c r="A33" s="1" t="s">
@@ -3348,24 +3690,28 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="54">
+    <row r="34" spans="1:12" ht="72">
       <c r="A34" s="1" t="s">
         <v>174</v>
       </c>
@@ -3373,23 +3719,59 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="54">
+      <c r="A35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B26EFD8-4645-454E-A037-4B22A62C61A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810D54F-1A68-4B71-B3FF-494361364533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
   <si>
     <t>テストケースID</t>
     <phoneticPr fontId="2"/>
@@ -1668,70 +1668,6 @@
     </rPh>
     <rPh sb="102" eb="104">
       <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
-2.アカウント一覧にアクセスする
-3.すべての項目を選択せず検索を押し、全データ表示する
-4任意のアカウントの更新ボタンをクリックする
-5.削除画面で確認するをクリックする
-6.データベース接続を切断しておく
-6.削除確認画面に遷移後、削除するをクリックする</t>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>セツダン</t>
-    </rPh>
-    <rPh sb="160" eb="163">
-      <t>センイゴ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2184,6 +2120,104 @@
   </si>
   <si>
     <t>TC034</t>
+  </si>
+  <si>
+    <t>1.ログイン後（管理者アカウント）、TOPページから「アカウント一覧」ボタンをクリックする
+2.アカウント一覧にアクセスする
+3.すべての項目を選択せず検索を押し、全データ表示する
+4任意のアカウントの削除ボタンをクリックする
+5.削除画面で削除するをクリックする
+6.データベース接続を切断しておく
+6.削除確認画面に遷移後、削除するをクリックする</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="160" eb="163">
+      <t>センイゴ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面、登録完了画面
+削除確認画面
+更新確認画面、更新完了画面
+以上が表示されてしまう。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>コウシンカンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2571,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:J25"/>
+    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2652,17 +2686,17 @@
         <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="8">
         <v>45531</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="216">
@@ -2688,17 +2722,17 @@
         <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="8">
         <v>45531</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72">
@@ -2724,17 +2758,17 @@
         <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="8">
         <v>45531</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="108">
@@ -2758,17 +2792,17 @@
         <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="8">
         <v>45531</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="108">
@@ -2794,17 +2828,17 @@
         <v>101</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="8">
         <v>45531</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90">
@@ -2828,17 +2862,17 @@
         <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="8">
         <v>45531</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="108">
@@ -2862,17 +2896,17 @@
         <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="8">
         <v>45531</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="108">
@@ -2896,17 +2930,17 @@
         <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="8">
         <v>45531</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="90">
@@ -2914,35 +2948,35 @@
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" s="8">
         <v>45531</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72">
@@ -2966,17 +3000,17 @@
         <v>110</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I11" s="8">
         <v>45531</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72">
@@ -3000,17 +3034,17 @@
         <v>111</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="8">
         <v>45531</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="108">
@@ -3034,22 +3068,22 @@
         <v>113</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="8">
         <v>45531</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="108">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>117</v>
@@ -3070,17 +3104,17 @@
         <v>114</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="8">
         <v>45531</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="54">
@@ -3103,17 +3137,17 @@
         <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" s="8">
         <v>45531</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="54">
@@ -3136,17 +3170,17 @@
         <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="8">
         <v>45531</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72">
@@ -3170,17 +3204,17 @@
         <v>119</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" s="8">
         <v>45531</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="54">
@@ -3204,17 +3238,17 @@
         <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="8">
         <v>45531</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="234">
@@ -3240,17 +3274,17 @@
         <v>128</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I19" s="8">
         <v>45531</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="126">
@@ -3276,17 +3310,17 @@
         <v>129</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="8">
         <v>45531</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="252">
@@ -3312,17 +3346,17 @@
         <v>133</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" s="8">
         <v>45531</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="144">
@@ -3346,17 +3380,17 @@
         <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I22" s="8">
         <v>45531</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="144">
@@ -3380,17 +3414,17 @@
         <v>138</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" s="8">
         <v>45531</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="108">
@@ -3416,17 +3450,17 @@
         <v>140</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I24" s="8">
         <v>45531</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="144">
@@ -3450,17 +3484,17 @@
         <v>141</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I25" s="8">
         <v>45531</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="234">
@@ -3486,13 +3520,17 @@
         <v>144</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="8">
+        <v>45531</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="144">
@@ -3516,13 +3554,17 @@
         <v>145</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="126">
@@ -3546,13 +3588,17 @@
         <v>148</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="144">
@@ -3570,19 +3616,23 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="36">
@@ -3593,28 +3643,32 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="H30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="72">
@@ -3631,22 +3685,26 @@
         <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="H31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="54">
@@ -3664,19 +3722,23 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="72">
@@ -3690,30 +3752,36 @@
         <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="I33" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="L33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="72">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -3722,30 +3790,34 @@
         <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="54">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -3758,19 +3830,23 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="8">
+        <v>45532</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
